--- a/src/data/IMPORT_LESSON_CoSoDuLieu.xlsx
+++ b/src/data/IMPORT_LESSON_CoSoDuLieu.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\DoAnTotNghiep\GoatEnglish\src\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATN\Goat-english-FE\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD8AEF50-6EAA-46D6-BA70-3E5CC38B01DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F84A729-43E4-4990-9EFF-C63B7DBE333E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{C94B9B43-E34D-4C0C-8662-AFEF24C89D47}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C94B9B43-E34D-4C0C-8662-AFEF24C89D47}"/>
   </bookViews>
   <sheets>
     <sheet name="Mau 01" sheetId="1" r:id="rId1"/>
@@ -298,9 +298,6 @@
     <t>Nghe và ghép thành câu đúng</t>
   </si>
   <si>
-    <t>Cơ sở dữ liệu</t>
-  </si>
-  <si>
     <t>Giới thiệu về cơ sở dữ liệu</t>
   </si>
   <si>
@@ -550,6 +547,9 @@
     <t>A. database
 B. field
 C. table</t>
+  </si>
+  <si>
+    <t>Cấp độ A1</t>
   </si>
 </sst>
 </file>
@@ -685,9 +685,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -725,7 +725,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -831,7 +831,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -973,7 +973,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -983,8 +983,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D382C9EF-85C3-4581-BD16-28A927E8615E}">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1037,10 +1037,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>32</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>33</v>
       </c>
       <c r="D4" s="3">
         <v>1</v>
@@ -1049,7 +1049,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>31</v>
+        <v>110</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>10</v>
@@ -1061,10 +1061,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>34</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>35</v>
       </c>
       <c r="D5" s="3">
         <v>2</v>
@@ -1073,7 +1073,7 @@
         <v>50</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>31</v>
+        <v>110</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>10</v>
@@ -1085,10 +1085,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>36</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>37</v>
       </c>
       <c r="D6" s="3">
         <v>3</v>
@@ -1097,7 +1097,7 @@
         <v>100</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>31</v>
+        <v>110</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>10</v>
@@ -1109,10 +1109,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>38</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>39</v>
       </c>
       <c r="D7" s="3">
         <v>4</v>
@@ -1121,7 +1121,7 @@
         <v>150</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>31</v>
+        <v>110</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>10</v>
@@ -1133,10 +1133,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>40</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>41</v>
       </c>
       <c r="D8" s="3">
         <v>5</v>
@@ -1145,7 +1145,7 @@
         <v>200</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>31</v>
+        <v>110</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>10</v>
@@ -1157,10 +1157,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>42</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>43</v>
       </c>
       <c r="D9" s="3">
         <v>1</v>
@@ -1169,7 +1169,7 @@
         <v>250</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>31</v>
+        <v>110</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>23</v>
@@ -1181,10 +1181,10 @@
         <v>7</v>
       </c>
       <c r="B10" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>44</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>45</v>
       </c>
       <c r="D10" s="3">
         <v>2</v>
@@ -1193,7 +1193,7 @@
         <v>300</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>31</v>
+        <v>110</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>23</v>
@@ -1205,10 +1205,10 @@
         <v>8</v>
       </c>
       <c r="B11" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>46</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>47</v>
       </c>
       <c r="D11" s="3">
         <v>3</v>
@@ -1217,7 +1217,7 @@
         <v>350</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>31</v>
+        <v>110</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>23</v>
@@ -1229,10 +1229,10 @@
         <v>9</v>
       </c>
       <c r="B12" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>48</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>49</v>
       </c>
       <c r="D12" s="3">
         <v>4</v>
@@ -1241,7 +1241,7 @@
         <v>400</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>31</v>
+        <v>110</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>23</v>
@@ -1253,10 +1253,10 @@
         <v>10</v>
       </c>
       <c r="B13" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>50</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>51</v>
       </c>
       <c r="D13" s="3">
         <v>5</v>
@@ -1265,7 +1265,7 @@
         <v>450</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>31</v>
+        <v>110</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>23</v>
@@ -1277,10 +1277,10 @@
         <v>11</v>
       </c>
       <c r="B14" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>52</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>53</v>
       </c>
       <c r="D14" s="3">
         <v>1</v>
@@ -1289,7 +1289,7 @@
         <v>500</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>31</v>
+        <v>110</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>25</v>
@@ -1301,10 +1301,10 @@
         <v>12</v>
       </c>
       <c r="B15" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="8" t="s">
         <v>54</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>55</v>
       </c>
       <c r="D15" s="3">
         <v>2</v>
@@ -1313,7 +1313,7 @@
         <v>550</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>31</v>
+        <v>110</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>25</v>
@@ -1325,10 +1325,10 @@
         <v>13</v>
       </c>
       <c r="B16" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="8" t="s">
         <v>56</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>57</v>
       </c>
       <c r="D16" s="3">
         <v>3</v>
@@ -1337,7 +1337,7 @@
         <v>600</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>31</v>
+        <v>110</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>25</v>
@@ -1349,10 +1349,10 @@
         <v>14</v>
       </c>
       <c r="B17" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="8" t="s">
         <v>58</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>59</v>
       </c>
       <c r="D17" s="3">
         <v>4</v>
@@ -1361,7 +1361,7 @@
         <v>650</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>31</v>
+        <v>110</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>25</v>
@@ -1373,10 +1373,10 @@
         <v>15</v>
       </c>
       <c r="B18" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="8" t="s">
         <v>60</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>61</v>
       </c>
       <c r="D18" s="3">
         <v>5</v>
@@ -1385,7 +1385,7 @@
         <v>700</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>31</v>
+        <v>110</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>25</v>
@@ -1397,10 +1397,10 @@
         <v>16</v>
       </c>
       <c r="B19" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="8" t="s">
         <v>62</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>63</v>
       </c>
       <c r="D19" s="3">
         <v>1</v>
@@ -1409,7 +1409,7 @@
         <v>750</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>31</v>
+        <v>110</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>26</v>
@@ -1421,10 +1421,10 @@
         <v>17</v>
       </c>
       <c r="B20" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="8" t="s">
         <v>64</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>65</v>
       </c>
       <c r="D20" s="3">
         <v>2</v>
@@ -1433,7 +1433,7 @@
         <v>800</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>31</v>
+        <v>110</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>26</v>
@@ -1445,10 +1445,10 @@
         <v>18</v>
       </c>
       <c r="B21" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" s="8" t="s">
         <v>66</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>67</v>
       </c>
       <c r="D21" s="3">
         <v>3</v>
@@ -1457,7 +1457,7 @@
         <v>850</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>31</v>
+        <v>110</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>26</v>
@@ -1469,10 +1469,10 @@
         <v>19</v>
       </c>
       <c r="B22" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" s="8" t="s">
         <v>68</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>69</v>
       </c>
       <c r="D22" s="3">
         <v>4</v>
@@ -1481,7 +1481,7 @@
         <v>900</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>31</v>
+        <v>110</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>26</v>
@@ -1493,10 +1493,10 @@
         <v>20</v>
       </c>
       <c r="B23" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23" s="8" t="s">
         <v>70</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>71</v>
       </c>
       <c r="D23" s="3">
         <v>5</v>
@@ -1505,7 +1505,7 @@
         <v>950</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>31</v>
+        <v>110</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>26</v>
@@ -1517,10 +1517,10 @@
         <v>21</v>
       </c>
       <c r="B24" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" s="8" t="s">
         <v>72</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>73</v>
       </c>
       <c r="D24" s="3">
         <v>1</v>
@@ -1529,7 +1529,7 @@
         <v>1000</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>31</v>
+        <v>110</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>27</v>
@@ -1541,10 +1541,10 @@
         <v>22</v>
       </c>
       <c r="B25" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" s="8" t="s">
         <v>74</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>75</v>
       </c>
       <c r="D25" s="3">
         <v>2</v>
@@ -1553,7 +1553,7 @@
         <v>1050</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>31</v>
+        <v>110</v>
       </c>
       <c r="G25" s="3" t="s">
         <v>27</v>
@@ -1565,10 +1565,10 @@
         <v>23</v>
       </c>
       <c r="B26" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" s="8" t="s">
         <v>76</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>77</v>
       </c>
       <c r="D26" s="3">
         <v>3</v>
@@ -1577,7 +1577,7 @@
         <v>1100</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>31</v>
+        <v>110</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>27</v>
@@ -1589,10 +1589,10 @@
         <v>24</v>
       </c>
       <c r="B27" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C27" s="8" t="s">
         <v>78</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>79</v>
       </c>
       <c r="D27" s="3">
         <v>4</v>
@@ -1601,7 +1601,7 @@
         <v>1150</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>31</v>
+        <v>110</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>27</v>
@@ -1613,10 +1613,10 @@
         <v>25</v>
       </c>
       <c r="B28" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C28" s="8" t="s">
         <v>80</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>81</v>
       </c>
       <c r="D28" s="3">
         <v>5</v>
@@ -1625,7 +1625,7 @@
         <v>1200</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>31</v>
+        <v>110</v>
       </c>
       <c r="G28" s="3" t="s">
         <v>27</v>
@@ -1642,8 +1642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FAD5055-4949-4107-A4BC-578AEF3A5BDB}">
   <dimension ref="A1:J90"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1711,18 +1711,18 @@
         <v>2</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="J4" s="4" t="s">
         <v>83</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
@@ -1739,20 +1739,20 @@
         <v>24</v>
       </c>
       <c r="E5" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F5" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="G5" s="4" t="s">
         <v>86</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>87</v>
       </c>
       <c r="H5" s="7"/>
       <c r="I5" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="J5" s="4" t="s">
         <v>87</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:10" s="1" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
@@ -1769,20 +1769,20 @@
         <v>3</v>
       </c>
       <c r="E6" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>89</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>90</v>
       </c>
       <c r="H6" s="7"/>
       <c r="I6" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1803,14 +1803,14 @@
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H7" s="7"/>
       <c r="I7" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="J7" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
@@ -1821,26 +1821,26 @@
         <v>1</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H8" s="7"/>
       <c r="I8" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="J8" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
@@ -1857,20 +1857,20 @@
         <v>2</v>
       </c>
       <c r="E9" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="F9" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="F9" s="8" t="s">
-        <v>101</v>
-      </c>
       <c r="G9" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H9" s="7"/>
       <c r="I9" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="J9" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:10" s="1" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
@@ -1887,20 +1887,20 @@
         <v>2</v>
       </c>
       <c r="E10" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F10" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="G10" s="4" t="s">
         <v>103</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>104</v>
       </c>
       <c r="H10" s="7"/>
       <c r="I10" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="J10" s="4" t="s">
         <v>104</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1917,18 +1917,18 @@
         <v>2</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H11" s="7"/>
       <c r="I11" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:10" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
@@ -1939,26 +1939,26 @@
         <v>1</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E12" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F12" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="F12" s="8" t="s">
-        <v>110</v>
-      </c>
       <c r="G12" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H12" s="7"/>
       <c r="I12" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:10" s="1" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
@@ -1975,20 +1975,20 @@
         <v>3</v>
       </c>
       <c r="E13" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G13" s="4" t="s">
         <v>89</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>90</v>
       </c>
       <c r="H13" s="7"/>
       <c r="I13" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2009,14 +2009,14 @@
       </c>
       <c r="F14" s="8"/>
       <c r="G14" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H14" s="7"/>
       <c r="I14" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="J14" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:10" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
@@ -2027,26 +2027,26 @@
         <v>1</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H15" s="7"/>
       <c r="I15" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="J15" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:10" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
@@ -2063,20 +2063,20 @@
         <v>2</v>
       </c>
       <c r="E16" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="F16" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="F16" s="8" t="s">
-        <v>101</v>
-      </c>
       <c r="G16" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H16" s="7"/>
       <c r="I16" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="J16" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:10" s="1" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
@@ -2093,20 +2093,20 @@
         <v>2</v>
       </c>
       <c r="E17" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F17" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="F17" s="8" t="s">
+      <c r="G17" s="4" t="s">
         <v>103</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>104</v>
       </c>
       <c r="H17" s="7"/>
       <c r="I17" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="J17" s="4" t="s">
         <v>104</v>
-      </c>
-      <c r="J17" s="4" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:10" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
@@ -2123,20 +2123,20 @@
         <v>24</v>
       </c>
       <c r="E18" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F18" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="F18" s="8" t="s">
+      <c r="G18" s="4" t="s">
         <v>86</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>87</v>
       </c>
       <c r="H18" s="7"/>
       <c r="I18" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="J18" s="4" t="s">
         <v>87</v>
-      </c>
-      <c r="J18" s="4" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:10" s="1" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
@@ -2153,20 +2153,20 @@
         <v>3</v>
       </c>
       <c r="E19" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G19" s="4" t="s">
         <v>89</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>90</v>
       </c>
       <c r="H19" s="7"/>
       <c r="I19" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2187,14 +2187,14 @@
       </c>
       <c r="F20" s="8"/>
       <c r="G20" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H20" s="7"/>
       <c r="I20" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="J20" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="J20" s="4" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:10" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
@@ -2205,26 +2205,26 @@
         <v>2</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H21" s="7"/>
       <c r="I21" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="J21" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="J21" s="4" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="22" spans="1:10" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
@@ -2241,20 +2241,20 @@
         <v>2</v>
       </c>
       <c r="E22" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="F22" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="F22" s="8" t="s">
-        <v>101</v>
-      </c>
       <c r="G22" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H22" s="7"/>
       <c r="I22" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="J22" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="J22" s="4" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="23" spans="1:10" s="1" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
@@ -2271,20 +2271,20 @@
         <v>2</v>
       </c>
       <c r="E23" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F23" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="F23" s="8" t="s">
+      <c r="G23" s="4" t="s">
         <v>103</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>104</v>
       </c>
       <c r="H23" s="7"/>
       <c r="I23" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="J23" s="4" t="s">
         <v>104</v>
-      </c>
-      <c r="J23" s="4" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="24" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2301,18 +2301,18 @@
         <v>2</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F24" s="8"/>
       <c r="G24" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H24" s="7"/>
       <c r="I24" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="25" spans="1:10" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
@@ -2323,26 +2323,26 @@
         <v>2</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E25" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F25" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="F25" s="8" t="s">
-        <v>110</v>
-      </c>
       <c r="G25" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H25" s="7"/>
       <c r="I25" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="26" spans="1:10" s="1" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
@@ -2359,20 +2359,20 @@
         <v>3</v>
       </c>
       <c r="E26" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G26" s="4" t="s">
         <v>89</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>90</v>
       </c>
       <c r="H26" s="7"/>
       <c r="I26" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2393,14 +2393,14 @@
       </c>
       <c r="F27" s="8"/>
       <c r="G27" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H27" s="7"/>
       <c r="I27" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="J27" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="J27" s="4" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="28" spans="1:10" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
@@ -2411,26 +2411,26 @@
         <v>2</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H28" s="7"/>
       <c r="I28" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="J28" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="J28" s="4" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="29" spans="1:10" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
@@ -2447,20 +2447,20 @@
         <v>2</v>
       </c>
       <c r="E29" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="F29" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="F29" s="8" t="s">
-        <v>101</v>
-      </c>
       <c r="G29" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H29" s="7"/>
       <c r="I29" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="J29" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="J29" s="4" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="30" spans="1:10" s="1" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
@@ -2477,20 +2477,20 @@
         <v>3</v>
       </c>
       <c r="E30" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G30" s="4" t="s">
         <v>89</v>
-      </c>
-      <c r="F30" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>90</v>
       </c>
       <c r="H30" s="7"/>
       <c r="I30" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="31" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2511,14 +2511,14 @@
       </c>
       <c r="F31" s="8"/>
       <c r="G31" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H31" s="7"/>
       <c r="I31" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="J31" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="J31" s="4" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="32" spans="1:10" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
@@ -2529,26 +2529,26 @@
         <v>3</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H32" s="7"/>
       <c r="I32" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="J32" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="J32" s="4" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="33" spans="1:10" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
@@ -2565,20 +2565,20 @@
         <v>2</v>
       </c>
       <c r="E33" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="F33" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="F33" s="8" t="s">
-        <v>101</v>
-      </c>
       <c r="G33" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H33" s="7"/>
       <c r="I33" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="J33" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="J33" s="4" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="34" spans="1:10" s="1" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
@@ -2595,20 +2595,20 @@
         <v>2</v>
       </c>
       <c r="E34" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F34" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="F34" s="8" t="s">
+      <c r="G34" s="4" t="s">
         <v>103</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>104</v>
       </c>
       <c r="H34" s="7"/>
       <c r="I34" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="J34" s="4" t="s">
         <v>104</v>
-      </c>
-      <c r="J34" s="4" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="35" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2625,18 +2625,18 @@
         <v>2</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F35" s="8"/>
       <c r="G35" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H35" s="7"/>
       <c r="I35" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="36" spans="1:10" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
@@ -2647,26 +2647,26 @@
         <v>3</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E36" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F36" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="F36" s="8" t="s">
-        <v>110</v>
-      </c>
       <c r="G36" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H36" s="7"/>
       <c r="I36" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="37" spans="1:10" s="1" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
@@ -2683,20 +2683,20 @@
         <v>3</v>
       </c>
       <c r="E37" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G37" s="4" t="s">
         <v>89</v>
-      </c>
-      <c r="F37" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="G37" s="4" t="s">
-        <v>90</v>
       </c>
       <c r="H37" s="7"/>
       <c r="I37" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="38" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2717,14 +2717,14 @@
       </c>
       <c r="F38" s="8"/>
       <c r="G38" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H38" s="7"/>
       <c r="I38" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="J38" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="J38" s="4" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="39" spans="1:10" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
@@ -2735,26 +2735,26 @@
         <v>3</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H39" s="7"/>
       <c r="I39" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="J39" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="J39" s="4" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="40" spans="1:10" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
@@ -2771,20 +2771,20 @@
         <v>2</v>
       </c>
       <c r="E40" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="F40" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="F40" s="8" t="s">
-        <v>101</v>
-      </c>
       <c r="G40" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H40" s="7"/>
       <c r="I40" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="J40" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="J40" s="4" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="41" spans="1:10" s="1" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
@@ -2801,20 +2801,20 @@
         <v>2</v>
       </c>
       <c r="E41" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F41" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="F41" s="8" t="s">
+      <c r="G41" s="4" t="s">
         <v>103</v>
-      </c>
-      <c r="G41" s="4" t="s">
-        <v>104</v>
       </c>
       <c r="H41" s="7"/>
       <c r="I41" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="J41" s="4" t="s">
         <v>104</v>
-      </c>
-      <c r="J41" s="4" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="42" spans="1:10" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
@@ -2831,20 +2831,20 @@
         <v>24</v>
       </c>
       <c r="E42" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F42" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="F42" s="8" t="s">
+      <c r="G42" s="4" t="s">
         <v>86</v>
-      </c>
-      <c r="G42" s="4" t="s">
-        <v>87</v>
       </c>
       <c r="H42" s="7"/>
       <c r="I42" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="J42" s="4" t="s">
         <v>87</v>
-      </c>
-      <c r="J42" s="4" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="43" spans="1:10" s="1" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
@@ -2861,20 +2861,20 @@
         <v>3</v>
       </c>
       <c r="E43" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G43" s="4" t="s">
         <v>89</v>
-      </c>
-      <c r="F43" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="G43" s="4" t="s">
-        <v>90</v>
       </c>
       <c r="H43" s="7"/>
       <c r="I43" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="44" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2895,14 +2895,14 @@
       </c>
       <c r="F44" s="8"/>
       <c r="G44" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H44" s="7"/>
       <c r="I44" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="J44" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="J44" s="4" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="45" spans="1:10" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
@@ -2913,26 +2913,26 @@
         <v>3</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H45" s="7"/>
       <c r="I45" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="J45" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="J45" s="4" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="46" spans="1:10" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
@@ -2949,20 +2949,20 @@
         <v>2</v>
       </c>
       <c r="E46" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="F46" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="F46" s="8" t="s">
-        <v>101</v>
-      </c>
       <c r="G46" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H46" s="7"/>
       <c r="I46" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="J46" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="J46" s="4" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="47" spans="1:10" s="1" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
@@ -2979,20 +2979,20 @@
         <v>2</v>
       </c>
       <c r="E47" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F47" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="F47" s="8" t="s">
+      <c r="G47" s="4" t="s">
         <v>103</v>
-      </c>
-      <c r="G47" s="4" t="s">
-        <v>104</v>
       </c>
       <c r="H47" s="7"/>
       <c r="I47" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="J47" s="4" t="s">
         <v>104</v>
-      </c>
-      <c r="J47" s="4" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="48" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3009,18 +3009,18 @@
         <v>2</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F48" s="8"/>
       <c r="G48" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H48" s="7"/>
       <c r="I48" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J48" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="49" spans="1:10" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
@@ -3031,26 +3031,26 @@
         <v>3</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E49" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F49" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="F49" s="8" t="s">
-        <v>110</v>
-      </c>
       <c r="G49" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H49" s="7"/>
       <c r="I49" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J49" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="50" spans="1:10" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
@@ -3061,26 +3061,26 @@
         <v>4</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F50" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H50" s="7"/>
       <c r="I50" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="J50" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="J50" s="4" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="51" spans="1:10" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
@@ -3097,20 +3097,20 @@
         <v>2</v>
       </c>
       <c r="E51" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="F51" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="F51" s="8" t="s">
-        <v>101</v>
-      </c>
       <c r="G51" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H51" s="7"/>
       <c r="I51" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="J51" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="J51" s="4" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="52" spans="1:10" s="1" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
@@ -3127,20 +3127,20 @@
         <v>2</v>
       </c>
       <c r="E52" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F52" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="F52" s="8" t="s">
+      <c r="G52" s="4" t="s">
         <v>103</v>
-      </c>
-      <c r="G52" s="4" t="s">
-        <v>104</v>
       </c>
       <c r="H52" s="7"/>
       <c r="I52" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="J52" s="4" t="s">
         <v>104</v>
-      </c>
-      <c r="J52" s="4" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="53" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3157,18 +3157,18 @@
         <v>2</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F53" s="8"/>
       <c r="G53" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H53" s="7"/>
       <c r="I53" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J53" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="54" spans="1:10" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
@@ -3179,26 +3179,26 @@
         <v>4</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E54" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F54" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="F54" s="8" t="s">
-        <v>110</v>
-      </c>
       <c r="G54" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H54" s="7"/>
       <c r="I54" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J54" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="55" spans="1:10" s="1" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
@@ -3215,20 +3215,20 @@
         <v>3</v>
       </c>
       <c r="E55" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F55" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G55" s="4" t="s">
         <v>89</v>
-      </c>
-      <c r="F55" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="G55" s="4" t="s">
-        <v>90</v>
       </c>
       <c r="H55" s="7"/>
       <c r="I55" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J55" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="56" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3249,14 +3249,14 @@
       </c>
       <c r="F56" s="8"/>
       <c r="G56" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H56" s="7"/>
       <c r="I56" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="J56" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="J56" s="4" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="57" spans="1:10" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
@@ -3267,26 +3267,26 @@
         <v>4</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H57" s="7"/>
       <c r="I57" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="J57" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="J57" s="4" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="58" spans="1:10" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
@@ -3303,20 +3303,20 @@
         <v>2</v>
       </c>
       <c r="E58" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="F58" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="F58" s="8" t="s">
-        <v>101</v>
-      </c>
       <c r="G58" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H58" s="7"/>
       <c r="I58" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="J58" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="J58" s="4" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="59" spans="1:10" s="1" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
@@ -3333,20 +3333,20 @@
         <v>3</v>
       </c>
       <c r="E59" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F59" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G59" s="4" t="s">
         <v>89</v>
-      </c>
-      <c r="F59" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="G59" s="4" t="s">
-        <v>90</v>
       </c>
       <c r="H59" s="7"/>
       <c r="I59" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J59" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="60" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3367,14 +3367,14 @@
       </c>
       <c r="F60" s="8"/>
       <c r="G60" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H60" s="7"/>
       <c r="I60" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="J60" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="J60" s="4" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="61" spans="1:10" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
@@ -3385,26 +3385,26 @@
         <v>4</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H61" s="7"/>
       <c r="I61" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="J61" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="J61" s="4" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="62" spans="1:10" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
@@ -3421,20 +3421,20 @@
         <v>2</v>
       </c>
       <c r="E62" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="F62" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="F62" s="8" t="s">
-        <v>101</v>
-      </c>
       <c r="G62" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H62" s="7"/>
       <c r="I62" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="J62" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="J62" s="4" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="63" spans="1:10" s="1" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
@@ -3451,20 +3451,20 @@
         <v>2</v>
       </c>
       <c r="E63" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F63" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="F63" s="8" t="s">
+      <c r="G63" s="4" t="s">
         <v>103</v>
-      </c>
-      <c r="G63" s="4" t="s">
-        <v>104</v>
       </c>
       <c r="H63" s="7"/>
       <c r="I63" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="J63" s="4" t="s">
         <v>104</v>
-      </c>
-      <c r="J63" s="4" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="64" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3481,18 +3481,18 @@
         <v>2</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F64" s="8"/>
       <c r="G64" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H64" s="7"/>
       <c r="I64" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J64" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="65" spans="1:10" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
@@ -3503,26 +3503,26 @@
         <v>4</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D65" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E65" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F65" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="F65" s="8" t="s">
-        <v>110</v>
-      </c>
       <c r="G65" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H65" s="7"/>
       <c r="I65" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J65" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="66" spans="1:10" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
@@ -3533,26 +3533,26 @@
         <v>5</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F66" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H66" s="7"/>
       <c r="I66" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="J66" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="J66" s="4" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="67" spans="1:10" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
@@ -3569,20 +3569,20 @@
         <v>2</v>
       </c>
       <c r="E67" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="F67" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="F67" s="8" t="s">
-        <v>101</v>
-      </c>
       <c r="G67" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H67" s="7"/>
       <c r="I67" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="J67" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="J67" s="4" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="68" spans="1:10" s="1" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
@@ -3599,20 +3599,20 @@
         <v>2</v>
       </c>
       <c r="E68" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F68" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="F68" s="8" t="s">
+      <c r="G68" s="4" t="s">
         <v>103</v>
-      </c>
-      <c r="G68" s="4" t="s">
-        <v>104</v>
       </c>
       <c r="H68" s="7"/>
       <c r="I68" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="J68" s="4" t="s">
         <v>104</v>
-      </c>
-      <c r="J68" s="4" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="69" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3629,18 +3629,18 @@
         <v>2</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F69" s="8"/>
       <c r="G69" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H69" s="7"/>
       <c r="I69" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J69" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="70" spans="1:10" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
@@ -3651,26 +3651,26 @@
         <v>5</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D70" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E70" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F70" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="F70" s="8" t="s">
-        <v>110</v>
-      </c>
       <c r="G70" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H70" s="7"/>
       <c r="I70" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J70" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="71" spans="1:10" s="1" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
@@ -3687,20 +3687,20 @@
         <v>3</v>
       </c>
       <c r="E71" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F71" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G71" s="4" t="s">
         <v>89</v>
-      </c>
-      <c r="F71" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="G71" s="4" t="s">
-        <v>90</v>
       </c>
       <c r="H71" s="7"/>
       <c r="I71" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J71" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="72" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3721,14 +3721,14 @@
       </c>
       <c r="F72" s="8"/>
       <c r="G72" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H72" s="7"/>
       <c r="I72" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="J72" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="J72" s="4" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="73" spans="1:10" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
@@ -3739,26 +3739,26 @@
         <v>5</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D73" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F73" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H73" s="7"/>
       <c r="I73" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="J73" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="J73" s="4" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="74" spans="1:10" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
@@ -3775,20 +3775,20 @@
         <v>2</v>
       </c>
       <c r="E74" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="F74" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="F74" s="8" t="s">
-        <v>101</v>
-      </c>
       <c r="G74" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H74" s="7"/>
       <c r="I74" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="J74" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="J74" s="4" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="75" spans="1:10" s="1" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
@@ -3805,20 +3805,20 @@
         <v>2</v>
       </c>
       <c r="E75" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F75" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="F75" s="8" t="s">
+      <c r="G75" s="4" t="s">
         <v>103</v>
-      </c>
-      <c r="G75" s="4" t="s">
-        <v>104</v>
       </c>
       <c r="H75" s="7"/>
       <c r="I75" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="J75" s="4" t="s">
         <v>104</v>
-      </c>
-      <c r="J75" s="4" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="76" spans="1:10" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
@@ -3835,20 +3835,20 @@
         <v>24</v>
       </c>
       <c r="E76" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F76" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="F76" s="8" t="s">
+      <c r="G76" s="4" t="s">
         <v>86</v>
-      </c>
-      <c r="G76" s="4" t="s">
-        <v>87</v>
       </c>
       <c r="H76" s="7"/>
       <c r="I76" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="J76" s="4" t="s">
         <v>87</v>
-      </c>
-      <c r="J76" s="4" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="77" spans="1:10" s="1" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
@@ -3865,20 +3865,20 @@
         <v>3</v>
       </c>
       <c r="E77" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F77" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G77" s="4" t="s">
         <v>89</v>
-      </c>
-      <c r="F77" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="G77" s="4" t="s">
-        <v>90</v>
       </c>
       <c r="H77" s="7"/>
       <c r="I77" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J77" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="78" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3899,14 +3899,14 @@
       </c>
       <c r="F78" s="8"/>
       <c r="G78" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H78" s="7"/>
       <c r="I78" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="J78" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="J78" s="4" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="79" spans="1:10" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
@@ -3917,26 +3917,26 @@
         <v>5</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D79" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F79" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H79" s="7"/>
       <c r="I79" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="J79" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="J79" s="4" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="80" spans="1:10" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
@@ -3953,20 +3953,20 @@
         <v>2</v>
       </c>
       <c r="E80" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="F80" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="F80" s="8" t="s">
-        <v>101</v>
-      </c>
       <c r="G80" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H80" s="7"/>
       <c r="I80" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="J80" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="J80" s="4" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="81" spans="1:10" s="1" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
@@ -3983,20 +3983,20 @@
         <v>2</v>
       </c>
       <c r="E81" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F81" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="F81" s="8" t="s">
+      <c r="G81" s="4" t="s">
         <v>103</v>
-      </c>
-      <c r="G81" s="4" t="s">
-        <v>104</v>
       </c>
       <c r="H81" s="7"/>
       <c r="I81" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="J81" s="4" t="s">
         <v>104</v>
-      </c>
-      <c r="J81" s="4" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="82" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4013,18 +4013,18 @@
         <v>2</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F82" s="8"/>
       <c r="G82" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H82" s="7"/>
       <c r="I82" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J82" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="83" spans="1:10" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
@@ -4035,26 +4035,26 @@
         <v>5</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E83" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F83" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="F83" s="8" t="s">
-        <v>110</v>
-      </c>
       <c r="G83" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H83" s="7"/>
       <c r="I83" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J83" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="84" spans="1:10" s="1" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
@@ -4071,20 +4071,20 @@
         <v>3</v>
       </c>
       <c r="E84" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F84" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G84" s="4" t="s">
         <v>89</v>
-      </c>
-      <c r="F84" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="G84" s="4" t="s">
-        <v>90</v>
       </c>
       <c r="H84" s="7"/>
       <c r="I84" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J84" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="85" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4105,14 +4105,14 @@
       </c>
       <c r="F85" s="8"/>
       <c r="G85" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H85" s="7"/>
       <c r="I85" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="J85" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="J85" s="4" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="86" spans="1:10" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
@@ -4123,26 +4123,26 @@
         <v>5</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D86" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F86" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H86" s="7"/>
       <c r="I86" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="J86" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="J86" s="4" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="87" spans="1:10" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
@@ -4159,20 +4159,20 @@
         <v>2</v>
       </c>
       <c r="E87" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="F87" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="F87" s="8" t="s">
-        <v>101</v>
-      </c>
       <c r="G87" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H87" s="7"/>
       <c r="I87" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="J87" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="J87" s="4" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="88" spans="1:10" s="1" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
@@ -4189,20 +4189,20 @@
         <v>3</v>
       </c>
       <c r="E88" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F88" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G88" s="4" t="s">
         <v>89</v>
-      </c>
-      <c r="F88" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="G88" s="4" t="s">
-        <v>90</v>
       </c>
       <c r="H88" s="7"/>
       <c r="I88" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J88" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="89" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4223,14 +4223,14 @@
       </c>
       <c r="F89" s="8"/>
       <c r="G89" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H89" s="7"/>
       <c r="I89" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="J89" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="J89" s="4" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="90" spans="1:10" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
@@ -4241,26 +4241,26 @@
         <v>5</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D90" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F90" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H90" s="7"/>
       <c r="I90" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="J90" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="J90" s="4" t="s">
-        <v>99</v>
       </c>
     </row>
   </sheetData>
